--- a/Application design.xlsx
+++ b/Application design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solerainc-my.sharepoint.com/personal/dainius_kirylo_solera_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dainius.Kirylo\Documents\Airline project\Flight_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1076" documentId="8_{83ACB28B-13E9-46EB-B5D8-18EDF2A09949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{241D8D24-3596-482B-804C-B2BFBB296EF4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FC8F85-6DAA-43DE-90B9-05B5CF457768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="753" firstSheet="4" activeTab="5" xr2:uid="{01D06EEF-062F-4497-AEEB-E4E45B241F7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="753" firstSheet="4" activeTab="4" xr2:uid="{01D06EEF-062F-4497-AEEB-E4E45B241F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall diagram" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Selecting flight page" sheetId="2" r:id="rId3"/>
     <sheet name="Luggage selection" sheetId="4" r:id="rId4"/>
     <sheet name="Personal information" sheetId="5" r:id="rId5"/>
-    <sheet name="DB design" sheetId="6" r:id="rId6"/>
-    <sheet name="Flight details" sheetId="7" r:id="rId7"/>
+    <sheet name="Admin page" sheetId="8" r:id="rId6"/>
+    <sheet name="DB design" sheetId="6" r:id="rId7"/>
+    <sheet name="Flight details" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="107">
   <si>
     <t>React</t>
   </si>
@@ -349,6 +350,21 @@
   </si>
   <si>
     <t>W61617</t>
+  </si>
+  <si>
+    <t>Purchase id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>2 purchases</t>
   </si>
 </sst>
 </file>
@@ -591,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -770,6 +786,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1417,10 +1440,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2542,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDE1CEB-380E-40BA-AE1E-55D806026D11}">
   <dimension ref="G3:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2782,10 +2801,383 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486E3364-C0A2-4813-8278-450DB7BF391D}">
+  <dimension ref="E1:P25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="3"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E4" s="3"/>
+      <c r="F4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="3"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E13" s="3"/>
+      <c r="F13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="3"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E22" s="3"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22" s="86"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="3"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E24" s="3"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="5"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M22:O23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95B4B63-7102-413D-B9EA-B0CA1026F4CC}">
   <dimension ref="D3:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D39" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
@@ -4083,7 +4475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15ABBD3E-BDA4-4BF1-989C-D00B7C7C1DF0}">
   <dimension ref="B1:N34"/>
   <sheetViews>
